--- a/biology/Histoire de la zoologie et de la botanique/Sergueï_Boukassov/Sergueï_Boukassov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sergueï_Boukassov/Sergueï_Boukassov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Boukassov</t>
+          <t>Sergueï_Boukassov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Mikhaïlovitch Boukassov (ou Sergej Mikhailovich Bukasov en transcription anglaise ; en russe : Букасов, Сергей Михайлович) (né le 13 septembre 1891 et mort à Léningrad le 17 juillet 1983) est un botaniste russe soviétique.
-Il travailla sur le genre Solanum et la problématique de la pomme de terre, en collaboration avec Nikolaï Vavilov et Sergueï Iouzeptchouk (la nomenclature de la pomme de terre est « Solanum tuberosum Juz. &amp; Boussakov »[1]). Au cours des années 1920, il étudia les pommes de terre chiliennes, Solanum tuberosum subsp. tuberosum, menant d'importantes études génétiques.
+Il travailla sur le genre Solanum et la problématique de la pomme de terre, en collaboration avec Nikolaï Vavilov et Sergueï Iouzeptchouk (la nomenclature de la pomme de terre est « Solanum tuberosum Juz. &amp; Boussakov »). Au cours des années 1920, il étudia les pommes de terre chiliennes, Solanum tuberosum subsp. tuberosum, menant d'importantes études génétiques.
 </t>
         </is>
       </c>
